--- a/Results_openquestions.xlsx
+++ b/Results_openquestions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gertv\OneDrive\Bureaublad\Tilburg\thesis\final code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C59CA3-57D8-4EB4-A0E1-1BACB678A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CF2E59-F706-4ECC-936B-13489F731E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A73040B4-3FE6-4F87-85BB-774CB2B56EE9}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="17">
-  <si>
-    <t>Part. No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="17">
   <si>
     <t>Age</t>
   </si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Secondary Degree</t>
+  </si>
+  <si>
+    <t>Part_No</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D702A433-6491-4629-BD5C-C0C22889718F}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,28 +451,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -483,22 +483,22 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -509,22 +509,22 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -535,22 +535,22 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -561,22 +561,22 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -587,22 +587,22 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -613,22 +613,22 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -639,22 +639,22 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -665,22 +665,22 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -691,22 +691,22 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -743,22 +743,22 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -769,22 +769,22 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -795,22 +795,22 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -821,22 +821,22 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -873,22 +873,22 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -899,22 +899,22 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -925,22 +925,22 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -951,22 +951,22 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -977,22 +977,22 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1003,22 +1003,22 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1029,22 +1029,22 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1055,22 +1055,22 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1081,22 +1081,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1107,22 +1107,22 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1133,22 +1133,22 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1159,22 +1159,22 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,22 +1185,22 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1211,27 +1211,48 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
